--- a/Files/TesteAdmissão.xlsx
+++ b/Files/TesteAdmissão.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/eric_pacheco_capgemini_com/Documents/Desktop/Schneider/SITS/MyOrca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poliv\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAEB5826-A1F9-42C0-B2F8-E7118CEC0334}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5AFA49-A007-4F3A-BDB4-01BFF6D14E3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E133997F-A63E-4149-AA56-C62793E31A2C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E133997F-A63E-4149-AA56-C62793E31A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43941</v>
+        <v>44185</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43942</v>
+        <v>44186</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43943</v>
+        <v>44187</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43944</v>
+        <v>44188</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43945</v>
+        <v>44189</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43946</v>
+        <v>44190</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43947</v>
+        <v>44191</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43948</v>
+        <v>44192</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43949</v>
+        <v>44193</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -595,13 +595,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E5CA0669F0B19A4C97051E69122EADC1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd365c4996e6dffd6ef2f6d3c463c1fc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a42bd279-a8da-4671-9755-026c37bf28de" xmlns:ns4="a1dd4b54-d447-4676-85ec-4540d2ef041e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5ca27c8f5012bce7bb293e4a9942d2e" ns3:_="" ns4:_="">
     <xsd:import namespace="a42bd279-a8da-4671-9755-026c37bf28de"/>
@@ -824,15 +834,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -840,6 +841,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFCA3A3-BEF3-4051-AABA-F4D789295DF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABA7A362-D440-48BF-9F88-999E2A3BA1B0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -858,14 +867,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFCA3A3-BEF3-4051-AABA-F4D789295DF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DCE3480-CA1C-4DE0-BECB-9FFCA09FCD0B}">
   <ds:schemaRefs>

--- a/Files/TesteAdmissão.xlsx
+++ b/Files/TesteAdmissão.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poliv\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5AFA49-A007-4F3A-BDB4-01BFF6D14E3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660059BD-E56A-4267-8E5A-4C51909386C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E133997F-A63E-4149-AA56-C62793E31A2C}"/>
   </bookViews>
@@ -76,8 +76,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,9 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +452,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +478,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>44185</v>
       </c>
       <c r="B2" t="s">
@@ -580,7 +590,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>44193</v>
       </c>
       <c r="B10" t="s">
